--- a/src/main/resources/doc/IotLife--智能家居管理平台-开发计划.xlsx
+++ b/src/main/resources/doc/IotLife--智能家居管理平台-开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>用户模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>解绑用户所有设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设备生成对应状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除设备删除对应状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改管理员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,148 +707,251 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
